--- a/PythonProgramming/Utilities/test_document.xlsx
+++ b/PythonProgramming/Utilities/test_document.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamalmukiri/Documents/GitHub/AptComputingLabs/PythonProgramming/Utilities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamalmukiri/Documents/1.GitHub/AptComputingLabs/PythonProgramming/Utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BC3AD7-BB8B-DC44-AC9A-F8DA955D2B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230769FE-D276-604D-A7B4-C6AD985773B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10900" yWindow="5460" windowWidth="29400" windowHeight="18380" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TTA" sheetId="1" r:id="rId1"/>
@@ -1080,7 +1080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="322" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -1264,9 +1264,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="238" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1438,7 +1442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="280" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -1993,7 +1997,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" zoomScale="223" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3963,8 +3969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q46" sqref="Q46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
